--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBook.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174524B1-2936-41B2-83AB-0D47B82027A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5E661-5B08-404F-9E3E-B0818989801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>備註說明</t>
   </si>
@@ -266,9 +266,6 @@
   <si>
     <t>利息是否可欠繳</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IncludeIntFlag</t>
   </si>
   <si>
     <t>UnpaidIntFlag</t>
@@ -328,6 +325,18 @@
   <si>
     <t>共用代碼檔
 TWD:新台幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否內含費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncludeIntFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncludeFeeFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1097,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A24" si="0">A10+1</f>
+        <f t="shared" ref="A11:A25" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1130,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>62</v>
@@ -1142,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1163,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1184,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1193,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>63</v>
@@ -1212,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>64</v>
@@ -1231,21 +1240,18 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4">
-        <v>16</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -1253,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
@@ -1267,98 +1273,120 @@
       <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" ref="A20" si="1">A17+1</f>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" ref="A22" si="2">A19+1</f>
+        <v>9</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4">
-        <v>6</v>
-      </c>
-      <c r="G22" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E23" s="4">
+        <v>6</v>
       </c>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
+        <f t="shared" ref="A24" si="3">A21+1</f>
+        <v>9</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B24" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>6</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1436,24 +1464,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBook.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBook.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5E661-5B08-404F-9E3E-B0818989801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B99B260-FD0B-44D8-9865-B8371EF4E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>備註說明</t>
   </si>
@@ -174,14 +165,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,6 +321,9 @@
   <si>
     <t>IncludeFeeFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -503,14 +489,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -518,9 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,9 +589,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -646,9 +629,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,26 +664,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,26 +699,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -929,7 +878,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -937,123 +886,123 @@
     <col min="1" max="1" width="5.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="5"/>
+    <col min="8" max="16384" width="21.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
@@ -1062,10 +1011,10 @@
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1074,7 +1023,7 @@
       <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1084,7 +1033,7 @@
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1093,7 +1042,7 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -1103,7 +1052,7 @@
       <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1112,7 +1061,7 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -1120,18 +1069,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -1139,19 +1088,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4">
         <v>8</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>67</v>
+      <c r="G13" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1160,9 +1109,9 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1171,8 +1120,8 @@
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>77</v>
+      <c r="G14" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1183,17 +1132,17 @@
       <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4">
         <v>3</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>78</v>
+      <c r="G15" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1202,18 +1151,18 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -1221,18 +1170,18 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -1240,18 +1189,18 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="13" t="s">
         <v>79</v>
       </c>
+      <c r="C18" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -1259,9 +1208,9 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1273,7 +1222,7 @@
       <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1283,7 +1232,7 @@
       <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1295,7 +1244,7 @@
       <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1303,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>76</v>
+      <c r="G21" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1323,70 +1272,70 @@
         <f t="shared" ref="A22" si="2">A19+1</f>
         <v>9</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4">
         <v>6</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" ref="A24" si="3">A21+1</f>
         <v>9</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="4">
         <v>6</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1422,19 +1371,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>37</v>
@@ -1442,46 +1391,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
